--- a/src/XML_Target.xlsx
+++ b/src/XML_Target.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolachiara/VSCODE/xml-test01/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBCAE9E-3EFD-5D42-9D21-531600EC5786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282246AF-E936-904F-93B7-BC7E7BACA01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6300" yWindow="5200" windowWidth="25640" windowHeight="14440" xr2:uid="{BD44CE19-019D-084D-89D7-9BE1C069CF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -167,9 +167,6 @@
     <t>0000001</t>
   </si>
   <si>
-    <t>Innova13 Systems</t>
-  </si>
-  <si>
     <t>Via Garibaldi 42</t>
   </si>
   <si>
@@ -245,9 +242,6 @@
     <t>4607311286</t>
   </si>
   <si>
-    <t>Bright79 Media</t>
-  </si>
-  <si>
     <t>Via  Roma  15</t>
   </si>
   <si>
@@ -320,9 +314,6 @@
     <t>7399333144</t>
   </si>
   <si>
-    <t>Neo57 Solutions</t>
-  </si>
-  <si>
     <t>Corso Dante 88</t>
   </si>
   <si>
@@ -398,9 +389,6 @@
     <t>3298624219</t>
   </si>
   <si>
-    <t>Quantum62 Systems</t>
-  </si>
-  <si>
     <t>Viale Verdi  120</t>
   </si>
   <si>
@@ -476,9 +464,6 @@
     <t>8333741271</t>
   </si>
   <si>
-    <t>Fusion42 Corp</t>
-  </si>
-  <si>
     <t>Largo Mazzini  35</t>
   </si>
   <si>
@@ -708,15 +693,38 @@
   </si>
   <si>
     <t>509/ 2025</t>
+  </si>
+  <si>
+    <t>Innova Corp</t>
+  </si>
+  <si>
+    <t>Fusion Corp</t>
+  </si>
+  <si>
+    <t>Bright Tech</t>
+  </si>
+  <si>
+    <t>Fusion Solutions</t>
+  </si>
+  <si>
+    <t>Quantum Corp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -731,7 +739,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -739,12 +747,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1081,12 +1108,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F11E2FD-714A-7446-9567-B1E631802F14}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="8" max="8" width="57.33203125"/>
+    <col min="9" max="10" width="19.1640625" customWidth="1"/>
+    <col min="23" max="23" width="62" style="1" customWidth="1"/>
+    <col min="38" max="38" width="31.6640625" style="1" customWidth="1"/>
     <col min="39" max="39" width="78.83203125" customWidth="1"/>
     <col min="40" max="40" width="12.6640625" customWidth="1"/>
     <col min="41" max="41" width="16.33203125" customWidth="1"/>
@@ -1114,7 +1145,7 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1159,7 +1190,7 @@
       <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="X1" t="s">
@@ -1204,7 +1235,7 @@
       <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AM1" t="s">
@@ -1234,58 +1265,58 @@
         <v>40</v>
       </c>
       <c r="H2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>44</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>49</v>
-      </c>
-      <c r="P2" t="s">
-        <v>50</v>
       </c>
       <c r="Q2">
         <v>90144</v>
       </c>
       <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
         <v>51</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>53</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X2" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" t="s">
         <v>54</v>
-      </c>
-      <c r="W2">
-        <v>45727</v>
-      </c>
-      <c r="X2" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>55</v>
       </c>
       <c r="Z2">
         <v>1830</v>
@@ -1294,7 +1325,7 @@
         <v>100</v>
       </c>
       <c r="AB2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC2">
         <v>3</v>
@@ -1318,12 +1349,12 @@
         <v>330</v>
       </c>
       <c r="AJ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" t="s">
         <v>57</v>
       </c>
-      <c r="AK2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL2">
+      <c r="AL2" s="1">
         <v>45787</v>
       </c>
       <c r="AM2">
@@ -1353,58 +1384,58 @@
         <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" t="s">
         <v>43</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>45</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" t="s">
-        <v>49</v>
-      </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3">
         <v>90145</v>
       </c>
       <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
         <v>51</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
         <v>52</v>
       </c>
-      <c r="T3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>53</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" t="s">
         <v>54</v>
-      </c>
-      <c r="W3">
-        <v>45727</v>
-      </c>
-      <c r="X3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>55</v>
       </c>
       <c r="Z3">
         <v>2440</v>
@@ -1413,7 +1444,7 @@
         <v>101</v>
       </c>
       <c r="AB3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC3">
         <v>4</v>
@@ -1437,12 +1468,12 @@
         <v>440</v>
       </c>
       <c r="AJ3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK3" t="s">
         <v>57</v>
       </c>
-      <c r="AK3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>45787</v>
       </c>
       <c r="AM3">
@@ -1472,58 +1503,58 @@
         <v>40</v>
       </c>
       <c r="H4" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="O4" t="s">
-        <v>49</v>
-      </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4">
         <v>90146</v>
       </c>
       <c r="R4" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" t="s">
         <v>51</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U4" t="s">
         <v>52</v>
       </c>
-      <c r="T4" t="s">
-        <v>39</v>
-      </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>53</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X4" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y4" t="s">
         <v>54</v>
-      </c>
-      <c r="W4">
-        <v>45727</v>
-      </c>
-      <c r="X4" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>55</v>
       </c>
       <c r="Z4">
         <v>2440</v>
@@ -1532,7 +1563,7 @@
         <v>102</v>
       </c>
       <c r="AB4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC4">
         <v>4</v>
@@ -1556,12 +1587,12 @@
         <v>440</v>
       </c>
       <c r="AJ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s">
         <v>57</v>
       </c>
-      <c r="AK4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL4">
+      <c r="AL4" s="1">
         <v>45787</v>
       </c>
       <c r="AM4">
@@ -1591,58 +1622,58 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
         <v>47</v>
       </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>48</v>
       </c>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
       <c r="P5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q5">
         <v>90147</v>
       </c>
       <c r="R5" t="s">
+        <v>50</v>
+      </c>
+      <c r="S5" t="s">
         <v>51</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" t="s">
         <v>52</v>
       </c>
-      <c r="T5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>53</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X5" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y5" t="s">
         <v>54</v>
-      </c>
-      <c r="W5">
-        <v>45727</v>
-      </c>
-      <c r="X5" t="s">
-        <v>177</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>55</v>
       </c>
       <c r="Z5">
         <v>3050</v>
@@ -1651,7 +1682,7 @@
         <v>103</v>
       </c>
       <c r="AB5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC5">
         <v>5</v>
@@ -1675,12 +1706,12 @@
         <v>550</v>
       </c>
       <c r="AJ5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK5" t="s">
         <v>57</v>
       </c>
-      <c r="AK5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL5">
+      <c r="AL5" s="1">
         <v>45787</v>
       </c>
       <c r="AM5">
@@ -1710,58 +1741,58 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" t="s">
         <v>43</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>48</v>
       </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
       <c r="P6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q6">
         <v>90148</v>
       </c>
       <c r="R6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" t="s">
         <v>51</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" t="s">
         <v>52</v>
       </c>
-      <c r="T6" t="s">
-        <v>39</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>53</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X6" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y6" t="s">
         <v>54</v>
-      </c>
-      <c r="W6">
-        <v>45727</v>
-      </c>
-      <c r="X6" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>55</v>
       </c>
       <c r="Z6">
         <v>3050</v>
@@ -1770,7 +1801,7 @@
         <v>104</v>
       </c>
       <c r="AB6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC6">
         <v>5</v>
@@ -1794,12 +1825,12 @@
         <v>550</v>
       </c>
       <c r="AJ6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" t="s">
         <v>57</v>
       </c>
-      <c r="AK6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL6">
+      <c r="AL6" s="1">
         <v>45787</v>
       </c>
       <c r="AM6">
@@ -1829,58 +1860,58 @@
         <v>40</v>
       </c>
       <c r="H7" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
         <v>47</v>
       </c>
-      <c r="M7" t="s">
-        <v>39</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
-        <v>49</v>
-      </c>
       <c r="P7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q7">
         <v>90149</v>
       </c>
       <c r="R7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" t="s">
         <v>51</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" t="s">
         <v>52</v>
       </c>
-      <c r="T7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>53</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y7" t="s">
         <v>54</v>
-      </c>
-      <c r="W7">
-        <v>45727</v>
-      </c>
-      <c r="X7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>55</v>
       </c>
       <c r="Z7">
         <v>2440</v>
@@ -1889,7 +1920,7 @@
         <v>105</v>
       </c>
       <c r="AB7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC7">
         <v>4</v>
@@ -1913,12 +1944,12 @@
         <v>440</v>
       </c>
       <c r="AJ7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK7" t="s">
         <v>57</v>
       </c>
-      <c r="AK7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL7">
+      <c r="AL7" s="1">
         <v>45787</v>
       </c>
       <c r="AM7">
@@ -1948,58 +1979,58 @@
         <v>40</v>
       </c>
       <c r="H8" t="s">
+        <v>219</v>
+      </c>
+      <c r="I8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>46</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
         <v>47</v>
       </c>
-      <c r="M8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>48</v>
       </c>
-      <c r="O8" t="s">
-        <v>49</v>
-      </c>
       <c r="P8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q8">
         <v>90150</v>
       </c>
       <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
         <v>51</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" t="s">
         <v>52</v>
       </c>
-      <c r="T8" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>53</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X8" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y8" t="s">
         <v>54</v>
-      </c>
-      <c r="W8">
-        <v>45727</v>
-      </c>
-      <c r="X8" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>55</v>
       </c>
       <c r="Z8">
         <v>1830</v>
@@ -2008,7 +2039,7 @@
         <v>106</v>
       </c>
       <c r="AB8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC8">
         <v>3</v>
@@ -2032,12 +2063,12 @@
         <v>330</v>
       </c>
       <c r="AJ8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK8" t="s">
         <v>57</v>
       </c>
-      <c r="AK8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL8">
+      <c r="AL8" s="1">
         <v>45787</v>
       </c>
       <c r="AM8">
@@ -2067,58 +2098,58 @@
         <v>40</v>
       </c>
       <c r="H9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>45</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>46</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" t="s">
         <v>47</v>
       </c>
-      <c r="M9" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>48</v>
       </c>
-      <c r="O9" t="s">
-        <v>49</v>
-      </c>
       <c r="P9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q9">
         <v>90151</v>
       </c>
       <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
         <v>51</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" t="s">
         <v>52</v>
       </c>
-      <c r="T9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>53</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y9" t="s">
         <v>54</v>
-      </c>
-      <c r="W9">
-        <v>45727</v>
-      </c>
-      <c r="X9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>55</v>
       </c>
       <c r="Z9">
         <v>2440</v>
@@ -2127,7 +2158,7 @@
         <v>107</v>
       </c>
       <c r="AB9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC9">
         <v>4</v>
@@ -2151,12 +2182,12 @@
         <v>440</v>
       </c>
       <c r="AJ9" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" t="s">
         <v>57</v>
       </c>
-      <c r="AK9" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL9">
+      <c r="AL9" s="1">
         <v>45787</v>
       </c>
       <c r="AM9">
@@ -2186,58 +2217,58 @@
         <v>40</v>
       </c>
       <c r="H10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>45</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>46</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
         <v>47</v>
       </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>48</v>
       </c>
-      <c r="O10" t="s">
-        <v>49</v>
-      </c>
       <c r="P10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q10">
         <v>90152</v>
       </c>
       <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
         <v>51</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" t="s">
         <v>52</v>
       </c>
-      <c r="T10" t="s">
-        <v>39</v>
-      </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>53</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X10" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y10" t="s">
         <v>54</v>
-      </c>
-      <c r="W10">
-        <v>45727</v>
-      </c>
-      <c r="X10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>55</v>
       </c>
       <c r="Z10">
         <v>2440</v>
@@ -2246,7 +2277,7 @@
         <v>108</v>
       </c>
       <c r="AB10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC10">
         <v>4</v>
@@ -2270,12 +2301,12 @@
         <v>440</v>
       </c>
       <c r="AJ10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK10" t="s">
         <v>57</v>
       </c>
-      <c r="AK10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL10">
+      <c r="AL10" s="1">
         <v>45787</v>
       </c>
       <c r="AM10">
@@ -2305,58 +2336,58 @@
         <v>40</v>
       </c>
       <c r="H11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I11" t="s">
         <v>43</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>44</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>45</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>46</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" t="s">
         <v>47</v>
       </c>
-      <c r="M11" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>48</v>
       </c>
-      <c r="O11" t="s">
-        <v>49</v>
-      </c>
       <c r="P11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q11">
         <v>90153</v>
       </c>
       <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
         <v>51</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
+        <v>39</v>
+      </c>
+      <c r="U11" t="s">
         <v>52</v>
       </c>
-      <c r="T11" t="s">
-        <v>39</v>
-      </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>53</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X11" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y11" t="s">
         <v>54</v>
-      </c>
-      <c r="W11">
-        <v>45727</v>
-      </c>
-      <c r="X11" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>55</v>
       </c>
       <c r="Z11">
         <v>3050</v>
@@ -2365,7 +2396,7 @@
         <v>109</v>
       </c>
       <c r="AB11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC11">
         <v>5</v>
@@ -2389,12 +2420,12 @@
         <v>550</v>
       </c>
       <c r="AJ11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK11" t="s">
         <v>57</v>
       </c>
-      <c r="AK11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL11">
+      <c r="AL11" s="1">
         <v>45787</v>
       </c>
       <c r="AM11">
@@ -2406,7 +2437,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12">
         <v>200</v>
@@ -2421,61 +2452,61 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" t="s">
         <v>68</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" t="s">
         <v>70</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" t="s">
         <v>72</v>
-      </c>
-      <c r="M12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" t="s">
-        <v>74</v>
       </c>
       <c r="Q12">
         <v>90154</v>
       </c>
       <c r="R12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S12" t="s">
         <v>51</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
+        <v>39</v>
+      </c>
+      <c r="U12" t="s">
         <v>52</v>
       </c>
-      <c r="T12" t="s">
-        <v>39</v>
-      </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>53</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y12" t="s">
         <v>54</v>
-      </c>
-      <c r="W12">
-        <v>45727</v>
-      </c>
-      <c r="X12" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>55</v>
       </c>
       <c r="Z12">
         <v>3050</v>
@@ -2484,7 +2515,7 @@
         <v>200</v>
       </c>
       <c r="AB12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC12">
         <v>5</v>
@@ -2508,12 +2539,12 @@
         <v>550</v>
       </c>
       <c r="AJ12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK12" t="s">
         <v>57</v>
       </c>
-      <c r="AK12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL12">
+      <c r="AL12" s="1">
         <v>45787</v>
       </c>
       <c r="AM12">
@@ -2525,7 +2556,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>201</v>
@@ -2540,61 +2571,61 @@
         <v>39</v>
       </c>
       <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
         <v>68</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>69</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" t="s">
-        <v>71</v>
-      </c>
-      <c r="K13" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" t="s">
-        <v>72</v>
-      </c>
       <c r="M13" t="s">
         <v>39</v>
       </c>
       <c r="N13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Q13">
         <v>90155</v>
       </c>
       <c r="R13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S13" t="s">
         <v>51</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" t="s">
         <v>52</v>
       </c>
-      <c r="T13" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>53</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X13" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y13" t="s">
         <v>54</v>
-      </c>
-      <c r="W13">
-        <v>45727</v>
-      </c>
-      <c r="X13" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>55</v>
       </c>
       <c r="Z13">
         <v>3050</v>
@@ -2603,7 +2634,7 @@
         <v>201</v>
       </c>
       <c r="AB13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC13">
         <v>5</v>
@@ -2627,12 +2658,12 @@
         <v>550</v>
       </c>
       <c r="AJ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK13" t="s">
         <v>57</v>
       </c>
-      <c r="AK13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL13">
+      <c r="AL13" s="1">
         <v>45787</v>
       </c>
       <c r="AM13">
@@ -2644,7 +2675,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14">
         <v>202</v>
@@ -2659,61 +2690,61 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" t="s">
         <v>68</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>69</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
         <v>70</v>
       </c>
-      <c r="J14" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" t="s">
-        <v>72</v>
-      </c>
       <c r="M14" t="s">
         <v>39</v>
       </c>
       <c r="N14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q14">
         <v>90156</v>
       </c>
       <c r="R14" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" t="s">
         <v>51</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" t="s">
         <v>52</v>
       </c>
-      <c r="T14" t="s">
-        <v>39</v>
-      </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>53</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X14" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y14" t="s">
         <v>54</v>
-      </c>
-      <c r="W14">
-        <v>45727</v>
-      </c>
-      <c r="X14" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>55</v>
       </c>
       <c r="Z14">
         <v>610</v>
@@ -2722,7 +2753,7 @@
         <v>202</v>
       </c>
       <c r="AB14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC14">
         <v>1</v>
@@ -2746,12 +2777,12 @@
         <v>110</v>
       </c>
       <c r="AJ14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK14" t="s">
         <v>57</v>
       </c>
-      <c r="AK14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14">
+      <c r="AL14" s="1">
         <v>45787</v>
       </c>
       <c r="AM14">
@@ -2763,7 +2794,7 @@
         <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15">
         <v>203</v>
@@ -2778,61 +2809,61 @@
         <v>39</v>
       </c>
       <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" t="s">
+        <v>220</v>
+      </c>
+      <c r="I15" t="s">
         <v>68</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>69</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" t="s">
         <v>70</v>
       </c>
-      <c r="J15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>72</v>
-      </c>
       <c r="M15" t="s">
         <v>39</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q15">
         <v>90157</v>
       </c>
       <c r="R15" t="s">
+        <v>50</v>
+      </c>
+      <c r="S15" t="s">
         <v>51</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U15" t="s">
         <v>52</v>
       </c>
-      <c r="T15" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>53</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X15" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y15" t="s">
         <v>54</v>
-      </c>
-      <c r="W15">
-        <v>45727</v>
-      </c>
-      <c r="X15" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>55</v>
       </c>
       <c r="Z15">
         <v>1830</v>
@@ -2841,7 +2872,7 @@
         <v>203</v>
       </c>
       <c r="AB15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC15">
         <v>3</v>
@@ -2865,12 +2896,12 @@
         <v>330</v>
       </c>
       <c r="AJ15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK15" t="s">
         <v>57</v>
       </c>
-      <c r="AK15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL15">
+      <c r="AL15" s="1">
         <v>45787</v>
       </c>
       <c r="AM15">
@@ -2882,7 +2913,7 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>204</v>
@@ -2897,61 +2928,61 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I16" t="s">
         <v>68</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>69</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" t="s">
         <v>70</v>
       </c>
-      <c r="J16" t="s">
-        <v>71</v>
-      </c>
-      <c r="K16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L16" t="s">
-        <v>72</v>
-      </c>
       <c r="M16" t="s">
         <v>39</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q16">
         <v>90158</v>
       </c>
       <c r="R16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" t="s">
         <v>51</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" t="s">
         <v>52</v>
       </c>
-      <c r="T16" t="s">
-        <v>39</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>53</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X16" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y16" t="s">
         <v>54</v>
-      </c>
-      <c r="W16">
-        <v>45727</v>
-      </c>
-      <c r="X16" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>55</v>
       </c>
       <c r="Z16">
         <v>1830</v>
@@ -2960,7 +2991,7 @@
         <v>204</v>
       </c>
       <c r="AB16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC16">
         <v>3</v>
@@ -2984,12 +3015,12 @@
         <v>330</v>
       </c>
       <c r="AJ16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK16" t="s">
         <v>57</v>
       </c>
-      <c r="AK16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16">
+      <c r="AL16" s="1">
         <v>45787</v>
       </c>
       <c r="AM16">
@@ -3001,7 +3032,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>205</v>
@@ -3016,61 +3047,61 @@
         <v>39</v>
       </c>
       <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" t="s">
         <v>68</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>69</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
         <v>70</v>
       </c>
-      <c r="J17" t="s">
-        <v>71</v>
-      </c>
-      <c r="K17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" t="s">
-        <v>72</v>
-      </c>
       <c r="M17" t="s">
         <v>39</v>
       </c>
       <c r="N17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Q17">
         <v>90159</v>
       </c>
       <c r="R17" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" t="s">
         <v>51</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" t="s">
         <v>52</v>
       </c>
-      <c r="T17" t="s">
-        <v>39</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>53</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
         <v>54</v>
-      </c>
-      <c r="W17">
-        <v>45727</v>
-      </c>
-      <c r="X17" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>55</v>
       </c>
       <c r="Z17">
         <v>1220</v>
@@ -3079,7 +3110,7 @@
         <v>205</v>
       </c>
       <c r="AB17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC17">
         <v>2</v>
@@ -3103,12 +3134,12 @@
         <v>220</v>
       </c>
       <c r="AJ17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK17" t="s">
         <v>57</v>
       </c>
-      <c r="AK17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17">
+      <c r="AL17" s="1">
         <v>45787</v>
       </c>
       <c r="AM17">
@@ -3120,7 +3151,7 @@
         <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>206</v>
@@ -3135,61 +3166,61 @@
         <v>39</v>
       </c>
       <c r="G18" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I18" t="s">
         <v>68</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>69</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" t="s">
         <v>70</v>
       </c>
-      <c r="J18" t="s">
-        <v>71</v>
-      </c>
-      <c r="K18" t="s">
-        <v>51</v>
-      </c>
-      <c r="L18" t="s">
-        <v>72</v>
-      </c>
       <c r="M18" t="s">
         <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q18">
         <v>90160</v>
       </c>
       <c r="R18" t="s">
+        <v>50</v>
+      </c>
+      <c r="S18" t="s">
         <v>51</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" t="s">
         <v>52</v>
       </c>
-      <c r="T18" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>53</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
         <v>54</v>
-      </c>
-      <c r="W18">
-        <v>45727</v>
-      </c>
-      <c r="X18" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>55</v>
       </c>
       <c r="Z18">
         <v>3050</v>
@@ -3198,7 +3229,7 @@
         <v>206</v>
       </c>
       <c r="AB18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC18">
         <v>5</v>
@@ -3222,12 +3253,12 @@
         <v>550</v>
       </c>
       <c r="AJ18" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK18" t="s">
         <v>57</v>
       </c>
-      <c r="AK18" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18">
+      <c r="AL18" s="1">
         <v>45787</v>
       </c>
       <c r="AM18">
@@ -3239,7 +3270,7 @@
         <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>207</v>
@@ -3254,61 +3285,61 @@
         <v>39</v>
       </c>
       <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" t="s">
+        <v>220</v>
+      </c>
+      <c r="I19" t="s">
         <v>68</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>69</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
         <v>70</v>
       </c>
-      <c r="J19" t="s">
-        <v>71</v>
-      </c>
-      <c r="K19" t="s">
-        <v>51</v>
-      </c>
-      <c r="L19" t="s">
-        <v>72</v>
-      </c>
       <c r="M19" t="s">
         <v>39</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q19">
         <v>90161</v>
       </c>
       <c r="R19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S19" t="s">
         <v>51</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" t="s">
         <v>52</v>
       </c>
-      <c r="T19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>53</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
         <v>54</v>
-      </c>
-      <c r="W19">
-        <v>45727</v>
-      </c>
-      <c r="X19" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>55</v>
       </c>
       <c r="Z19">
         <v>610</v>
@@ -3317,7 +3348,7 @@
         <v>207</v>
       </c>
       <c r="AB19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC19">
         <v>1</v>
@@ -3341,12 +3372,12 @@
         <v>110</v>
       </c>
       <c r="AJ19" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK19" t="s">
         <v>57</v>
       </c>
-      <c r="AK19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19">
+      <c r="AL19" s="1">
         <v>45787</v>
       </c>
       <c r="AM19">
@@ -3358,7 +3389,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>208</v>
@@ -3373,61 +3404,61 @@
         <v>39</v>
       </c>
       <c r="G20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" t="s">
+        <v>220</v>
+      </c>
+      <c r="I20" t="s">
         <v>68</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>69</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
+        <v>50</v>
+      </c>
+      <c r="L20" t="s">
         <v>70</v>
       </c>
-      <c r="J20" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20" t="s">
-        <v>51</v>
-      </c>
-      <c r="L20" t="s">
-        <v>72</v>
-      </c>
       <c r="M20" t="s">
         <v>39</v>
       </c>
       <c r="N20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="Q20">
         <v>90162</v>
       </c>
       <c r="R20" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" t="s">
         <v>51</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" t="s">
         <v>52</v>
       </c>
-      <c r="T20" t="s">
-        <v>39</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>53</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X20" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y20" t="s">
         <v>54</v>
-      </c>
-      <c r="W20">
-        <v>45727</v>
-      </c>
-      <c r="X20" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>55</v>
       </c>
       <c r="Z20">
         <v>3050</v>
@@ -3436,7 +3467,7 @@
         <v>208</v>
       </c>
       <c r="AB20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC20">
         <v>5</v>
@@ -3460,12 +3491,12 @@
         <v>550</v>
       </c>
       <c r="AJ20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK20" t="s">
         <v>57</v>
       </c>
-      <c r="AK20" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL20">
+      <c r="AL20" s="1">
         <v>45787</v>
       </c>
       <c r="AM20">
@@ -3477,7 +3508,7 @@
         <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>209</v>
@@ -3492,61 +3523,61 @@
         <v>39</v>
       </c>
       <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I21" t="s">
         <v>68</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>69</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L21" t="s">
         <v>70</v>
       </c>
-      <c r="J21" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" t="s">
-        <v>72</v>
-      </c>
       <c r="M21" t="s">
         <v>39</v>
       </c>
       <c r="N21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q21">
         <v>90163</v>
       </c>
       <c r="R21" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" t="s">
         <v>51</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" t="s">
         <v>52</v>
       </c>
-      <c r="T21" t="s">
-        <v>39</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>53</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X21" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y21" t="s">
         <v>54</v>
-      </c>
-      <c r="W21">
-        <v>45727</v>
-      </c>
-      <c r="X21" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>55</v>
       </c>
       <c r="Z21">
         <v>2440</v>
@@ -3555,7 +3586,7 @@
         <v>209</v>
       </c>
       <c r="AB21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC21">
         <v>4</v>
@@ -3579,12 +3610,12 @@
         <v>440</v>
       </c>
       <c r="AJ21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK21" t="s">
         <v>57</v>
       </c>
-      <c r="AK21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL21">
+      <c r="AL21" s="1">
         <v>45787</v>
       </c>
       <c r="AM21">
@@ -3596,7 +3627,7 @@
         <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C22">
         <v>300</v>
@@ -3611,61 +3642,61 @@
         <v>39</v>
       </c>
       <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" t="s">
         <v>93</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>95</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" t="s">
         <v>96</v>
       </c>
-      <c r="K22" t="s">
+      <c r="O22" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" t="s">
         <v>97</v>
-      </c>
-      <c r="L22" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" t="s">
-        <v>39</v>
-      </c>
-      <c r="N22" t="s">
-        <v>99</v>
-      </c>
-      <c r="O22" t="s">
-        <v>49</v>
-      </c>
-      <c r="P22" t="s">
-        <v>100</v>
       </c>
       <c r="Q22">
         <v>90164</v>
       </c>
       <c r="R22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S22" t="s">
         <v>51</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" t="s">
         <v>52</v>
       </c>
-      <c r="T22" t="s">
-        <v>39</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>53</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X22" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y22" t="s">
         <v>54</v>
-      </c>
-      <c r="W22">
-        <v>45727</v>
-      </c>
-      <c r="X22" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>55</v>
       </c>
       <c r="Z22">
         <v>610</v>
@@ -3674,7 +3705,7 @@
         <v>300</v>
       </c>
       <c r="AB22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC22">
         <v>1</v>
@@ -3698,12 +3729,12 @@
         <v>110</v>
       </c>
       <c r="AJ22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK22" t="s">
         <v>57</v>
       </c>
-      <c r="AK22" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL22">
+      <c r="AL22" s="1">
         <v>45787</v>
       </c>
       <c r="AM22">
@@ -3715,7 +3746,7 @@
         <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C23">
         <v>301</v>
@@ -3730,61 +3761,61 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>221</v>
+      </c>
+      <c r="I23" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>94</v>
       </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>95</v>
       </c>
-      <c r="J23" t="s">
-        <v>96</v>
-      </c>
-      <c r="K23" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" t="s">
         <v>98</v>
       </c>
-      <c r="M23" t="s">
-        <v>39</v>
-      </c>
-      <c r="N23" t="s">
-        <v>101</v>
-      </c>
       <c r="O23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q23">
         <v>90165</v>
       </c>
       <c r="R23" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" t="s">
         <v>51</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" t="s">
         <v>52</v>
       </c>
-      <c r="T23" t="s">
-        <v>39</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>53</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X23" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s">
         <v>54</v>
-      </c>
-      <c r="W23">
-        <v>45727</v>
-      </c>
-      <c r="X23" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>55</v>
       </c>
       <c r="Z23">
         <v>1830</v>
@@ -3793,7 +3824,7 @@
         <v>301</v>
       </c>
       <c r="AB23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC23">
         <v>3</v>
@@ -3817,12 +3848,12 @@
         <v>330</v>
       </c>
       <c r="AJ23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK23" t="s">
         <v>57</v>
       </c>
-      <c r="AK23" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL23">
+      <c r="AL23" s="1">
         <v>45787</v>
       </c>
       <c r="AM23">
@@ -3834,7 +3865,7 @@
         <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24">
         <v>302</v>
@@ -3849,61 +3880,61 @@
         <v>39</v>
       </c>
       <c r="G24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" t="s">
+        <v>221</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" t="s">
         <v>93</v>
       </c>
-      <c r="H24" t="s">
+      <c r="K24" t="s">
         <v>94</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>95</v>
       </c>
-      <c r="J24" t="s">
-        <v>96</v>
-      </c>
-      <c r="K24" t="s">
-        <v>97</v>
-      </c>
-      <c r="L24" t="s">
-        <v>98</v>
-      </c>
       <c r="M24" t="s">
         <v>39</v>
       </c>
       <c r="N24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q24">
         <v>90166</v>
       </c>
       <c r="R24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" t="s">
         <v>51</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" t="s">
         <v>52</v>
       </c>
-      <c r="T24" t="s">
-        <v>39</v>
-      </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>53</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y24" t="s">
         <v>54</v>
-      </c>
-      <c r="W24">
-        <v>45727</v>
-      </c>
-      <c r="X24" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>55</v>
       </c>
       <c r="Z24">
         <v>3050</v>
@@ -3912,7 +3943,7 @@
         <v>302</v>
       </c>
       <c r="AB24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC24">
         <v>5</v>
@@ -3936,12 +3967,12 @@
         <v>550</v>
       </c>
       <c r="AJ24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK24" t="s">
         <v>57</v>
       </c>
-      <c r="AK24" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL24">
+      <c r="AL24" s="1">
         <v>45787</v>
       </c>
       <c r="AM24">
@@ -3953,7 +3984,7 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C25">
         <v>303</v>
@@ -3968,61 +3999,61 @@
         <v>39</v>
       </c>
       <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
+        <v>221</v>
+      </c>
+      <c r="I25" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" t="s">
         <v>93</v>
       </c>
-      <c r="H25" t="s">
+      <c r="K25" t="s">
         <v>94</v>
       </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>95</v>
       </c>
-      <c r="J25" t="s">
-        <v>96</v>
-      </c>
-      <c r="K25" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" t="s">
-        <v>98</v>
-      </c>
       <c r="M25" t="s">
         <v>39</v>
       </c>
       <c r="N25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q25">
         <v>90167</v>
       </c>
       <c r="R25" t="s">
+        <v>50</v>
+      </c>
+      <c r="S25" t="s">
         <v>51</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" t="s">
         <v>52</v>
       </c>
-      <c r="T25" t="s">
-        <v>39</v>
-      </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>53</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X25" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y25" t="s">
         <v>54</v>
-      </c>
-      <c r="W25">
-        <v>45727</v>
-      </c>
-      <c r="X25" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>55</v>
       </c>
       <c r="Z25">
         <v>3050</v>
@@ -4031,7 +4062,7 @@
         <v>303</v>
       </c>
       <c r="AB25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC25">
         <v>5</v>
@@ -4055,12 +4086,12 @@
         <v>550</v>
       </c>
       <c r="AJ25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK25" t="s">
         <v>57</v>
       </c>
-      <c r="AK25" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL25">
+      <c r="AL25" s="1">
         <v>45787</v>
       </c>
       <c r="AM25">
@@ -4072,7 +4103,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <v>304</v>
@@ -4087,61 +4118,61 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>221</v>
+      </c>
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+      <c r="J26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" t="s">
+      <c r="K26" t="s">
         <v>94</v>
       </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>95</v>
       </c>
-      <c r="J26" t="s">
-        <v>96</v>
-      </c>
-      <c r="K26" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" t="s">
-        <v>98</v>
-      </c>
       <c r="M26" t="s">
         <v>39</v>
       </c>
       <c r="N26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="O26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q26">
         <v>90168</v>
       </c>
       <c r="R26" t="s">
+        <v>50</v>
+      </c>
+      <c r="S26" t="s">
         <v>51</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" t="s">
         <v>52</v>
       </c>
-      <c r="T26" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>53</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X26" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y26" t="s">
         <v>54</v>
-      </c>
-      <c r="W26">
-        <v>45727</v>
-      </c>
-      <c r="X26" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>55</v>
       </c>
       <c r="Z26">
         <v>1830</v>
@@ -4150,7 +4181,7 @@
         <v>304</v>
       </c>
       <c r="AB26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC26">
         <v>3</v>
@@ -4174,12 +4205,12 @@
         <v>330</v>
       </c>
       <c r="AJ26" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK26" t="s">
         <v>57</v>
       </c>
-      <c r="AK26" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL26">
+      <c r="AL26" s="1">
         <v>45787</v>
       </c>
       <c r="AM26">
@@ -4191,7 +4222,7 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27">
         <v>305</v>
@@ -4206,61 +4237,61 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J27" t="s">
         <v>93</v>
       </c>
-      <c r="H27" t="s">
+      <c r="K27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" t="s">
+      <c r="L27" t="s">
         <v>95</v>
       </c>
-      <c r="J27" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" t="s">
-        <v>97</v>
-      </c>
-      <c r="L27" t="s">
-        <v>98</v>
-      </c>
       <c r="M27" t="s">
         <v>39</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q27">
         <v>90169</v>
       </c>
       <c r="R27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S27" t="s">
         <v>51</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" t="s">
         <v>52</v>
       </c>
-      <c r="T27" t="s">
-        <v>39</v>
-      </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>53</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X27" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y27" t="s">
         <v>54</v>
-      </c>
-      <c r="W27">
-        <v>45727</v>
-      </c>
-      <c r="X27" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>55</v>
       </c>
       <c r="Z27">
         <v>3050</v>
@@ -4269,7 +4300,7 @@
         <v>305</v>
       </c>
       <c r="AB27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC27">
         <v>5</v>
@@ -4293,12 +4324,12 @@
         <v>550</v>
       </c>
       <c r="AJ27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK27" t="s">
         <v>57</v>
       </c>
-      <c r="AK27" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL27">
+      <c r="AL27" s="1">
         <v>45787</v>
       </c>
       <c r="AM27">
@@ -4310,7 +4341,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <v>306</v>
@@ -4325,61 +4356,61 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" t="s">
+        <v>221</v>
+      </c>
+      <c r="I28" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" t="s">
         <v>93</v>
       </c>
-      <c r="H28" t="s">
+      <c r="K28" t="s">
         <v>94</v>
       </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>95</v>
       </c>
-      <c r="J28" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" t="s">
-        <v>97</v>
-      </c>
-      <c r="L28" t="s">
-        <v>98</v>
-      </c>
       <c r="M28" t="s">
         <v>39</v>
       </c>
       <c r="N28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q28">
         <v>90170</v>
       </c>
       <c r="R28" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" t="s">
         <v>51</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" t="s">
         <v>52</v>
       </c>
-      <c r="T28" t="s">
-        <v>39</v>
-      </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>53</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X28" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y28" t="s">
         <v>54</v>
-      </c>
-      <c r="W28">
-        <v>45727</v>
-      </c>
-      <c r="X28" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>55</v>
       </c>
       <c r="Z28">
         <v>2440</v>
@@ -4388,7 +4419,7 @@
         <v>306</v>
       </c>
       <c r="AB28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC28">
         <v>4</v>
@@ -4412,12 +4443,12 @@
         <v>440</v>
       </c>
       <c r="AJ28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK28" t="s">
         <v>57</v>
       </c>
-      <c r="AK28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL28">
+      <c r="AL28" s="1">
         <v>45787</v>
       </c>
       <c r="AM28">
@@ -4429,7 +4460,7 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>307</v>
@@ -4444,61 +4475,61 @@
         <v>39</v>
       </c>
       <c r="G29" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>221</v>
+      </c>
+      <c r="I29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J29" t="s">
         <v>93</v>
       </c>
-      <c r="H29" t="s">
+      <c r="K29" t="s">
         <v>94</v>
       </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>95</v>
       </c>
-      <c r="J29" t="s">
-        <v>96</v>
-      </c>
-      <c r="K29" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" t="s">
-        <v>98</v>
-      </c>
       <c r="M29" t="s">
         <v>39</v>
       </c>
       <c r="N29" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="O29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="Q29">
         <v>90171</v>
       </c>
       <c r="R29" t="s">
+        <v>50</v>
+      </c>
+      <c r="S29" t="s">
         <v>51</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
+        <v>39</v>
+      </c>
+      <c r="U29" t="s">
         <v>52</v>
       </c>
-      <c r="T29" t="s">
-        <v>39</v>
-      </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>53</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X29" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y29" t="s">
         <v>54</v>
-      </c>
-      <c r="W29">
-        <v>45727</v>
-      </c>
-      <c r="X29" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>55</v>
       </c>
       <c r="Z29">
         <v>1830</v>
@@ -4507,7 +4538,7 @@
         <v>307</v>
       </c>
       <c r="AB29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC29">
         <v>3</v>
@@ -4531,12 +4562,12 @@
         <v>330</v>
       </c>
       <c r="AJ29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK29" t="s">
         <v>57</v>
       </c>
-      <c r="AK29" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL29">
+      <c r="AL29" s="1">
         <v>45787</v>
       </c>
       <c r="AM29">
@@ -4548,7 +4579,7 @@
         <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>308</v>
@@ -4563,61 +4594,61 @@
         <v>39</v>
       </c>
       <c r="G30" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
         <v>93</v>
       </c>
-      <c r="H30" t="s">
+      <c r="K30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>95</v>
       </c>
-      <c r="J30" t="s">
-        <v>96</v>
-      </c>
-      <c r="K30" t="s">
-        <v>97</v>
-      </c>
-      <c r="L30" t="s">
-        <v>98</v>
-      </c>
       <c r="M30" t="s">
         <v>39</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q30">
         <v>90172</v>
       </c>
       <c r="R30" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" t="s">
         <v>51</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
+        <v>39</v>
+      </c>
+      <c r="U30" t="s">
         <v>52</v>
       </c>
-      <c r="T30" t="s">
-        <v>39</v>
-      </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>53</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X30" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y30" t="s">
         <v>54</v>
-      </c>
-      <c r="W30">
-        <v>45727</v>
-      </c>
-      <c r="X30" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>55</v>
       </c>
       <c r="Z30">
         <v>2440</v>
@@ -4626,7 +4657,7 @@
         <v>308</v>
       </c>
       <c r="AB30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC30">
         <v>4</v>
@@ -4650,12 +4681,12 @@
         <v>440</v>
       </c>
       <c r="AJ30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK30" t="s">
         <v>57</v>
       </c>
-      <c r="AK30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL30">
+      <c r="AL30" s="1">
         <v>45787</v>
       </c>
       <c r="AM30">
@@ -4667,7 +4698,7 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>309</v>
@@ -4682,61 +4713,61 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H31" t="s">
+        <v>221</v>
+      </c>
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" t="s">
         <v>93</v>
       </c>
-      <c r="H31" t="s">
+      <c r="K31" t="s">
         <v>94</v>
       </c>
-      <c r="I31" t="s">
+      <c r="L31" t="s">
         <v>95</v>
       </c>
-      <c r="J31" t="s">
-        <v>96</v>
-      </c>
-      <c r="K31" t="s">
-        <v>97</v>
-      </c>
-      <c r="L31" t="s">
-        <v>98</v>
-      </c>
       <c r="M31" t="s">
         <v>39</v>
       </c>
       <c r="N31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P31" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q31">
         <v>90173</v>
       </c>
       <c r="R31" t="s">
+        <v>50</v>
+      </c>
+      <c r="S31" t="s">
         <v>51</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
+        <v>39</v>
+      </c>
+      <c r="U31" t="s">
         <v>52</v>
       </c>
-      <c r="T31" t="s">
-        <v>39</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>53</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X31" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y31" t="s">
         <v>54</v>
-      </c>
-      <c r="W31">
-        <v>45727</v>
-      </c>
-      <c r="X31" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>55</v>
       </c>
       <c r="Z31">
         <v>3050</v>
@@ -4745,7 +4776,7 @@
         <v>309</v>
       </c>
       <c r="AB31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC31">
         <v>5</v>
@@ -4769,12 +4800,12 @@
         <v>550</v>
       </c>
       <c r="AJ31" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK31" t="s">
         <v>57</v>
       </c>
-      <c r="AK31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL31">
+      <c r="AL31" s="1">
         <v>45787</v>
       </c>
       <c r="AM31">
@@ -4786,7 +4817,7 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32">
         <v>400</v>
@@ -4801,61 +4832,61 @@
         <v>39</v>
       </c>
       <c r="G32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" t="s">
+        <v>222</v>
+      </c>
+      <c r="I32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" t="s">
         <v>119</v>
       </c>
-      <c r="H32" t="s">
+      <c r="L32" t="s">
         <v>120</v>
       </c>
-      <c r="I32" t="s">
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
         <v>121</v>
       </c>
-      <c r="J32" t="s">
+      <c r="O32" t="s">
+        <v>48</v>
+      </c>
+      <c r="P32" t="s">
         <v>122</v>
-      </c>
-      <c r="K32" t="s">
-        <v>123</v>
-      </c>
-      <c r="L32" t="s">
-        <v>124</v>
-      </c>
-      <c r="M32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" t="s">
-        <v>125</v>
-      </c>
-      <c r="O32" t="s">
-        <v>49</v>
-      </c>
-      <c r="P32" t="s">
-        <v>126</v>
       </c>
       <c r="Q32">
         <v>90174</v>
       </c>
       <c r="R32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32" t="s">
         <v>51</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
+        <v>39</v>
+      </c>
+      <c r="U32" t="s">
         <v>52</v>
       </c>
-      <c r="T32" t="s">
-        <v>39</v>
-      </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>53</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X32" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y32" t="s">
         <v>54</v>
-      </c>
-      <c r="W32">
-        <v>45727</v>
-      </c>
-      <c r="X32" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>55</v>
       </c>
       <c r="Z32">
         <v>2440</v>
@@ -4864,7 +4895,7 @@
         <v>400</v>
       </c>
       <c r="AB32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC32">
         <v>4</v>
@@ -4888,12 +4919,12 @@
         <v>440</v>
       </c>
       <c r="AJ32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK32" t="s">
         <v>57</v>
       </c>
-      <c r="AK32" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL32">
+      <c r="AL32" s="1">
         <v>45787</v>
       </c>
       <c r="AM32">
@@ -4905,7 +4936,7 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33">
         <v>401</v>
@@ -4920,61 +4951,61 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" t="s">
+        <v>222</v>
+      </c>
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>118</v>
+      </c>
+      <c r="K33" t="s">
         <v>119</v>
       </c>
-      <c r="H33" t="s">
+      <c r="L33" t="s">
         <v>120</v>
       </c>
-      <c r="I33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
         <v>123</v>
       </c>
-      <c r="L33" t="s">
+      <c r="O33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P33" t="s">
         <v>124</v>
-      </c>
-      <c r="M33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" t="s">
-        <v>127</v>
-      </c>
-      <c r="O33" t="s">
-        <v>49</v>
-      </c>
-      <c r="P33" t="s">
-        <v>128</v>
       </c>
       <c r="Q33">
         <v>90175</v>
       </c>
       <c r="R33" t="s">
+        <v>50</v>
+      </c>
+      <c r="S33" t="s">
         <v>51</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
+        <v>39</v>
+      </c>
+      <c r="U33" t="s">
         <v>52</v>
       </c>
-      <c r="T33" t="s">
-        <v>39</v>
-      </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>53</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X33" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y33" t="s">
         <v>54</v>
-      </c>
-      <c r="W33">
-        <v>45727</v>
-      </c>
-      <c r="X33" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>55</v>
       </c>
       <c r="Z33">
         <v>2440</v>
@@ -4983,7 +5014,7 @@
         <v>401</v>
       </c>
       <c r="AB33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC33">
         <v>4</v>
@@ -5007,12 +5038,12 @@
         <v>440</v>
       </c>
       <c r="AJ33" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK33" t="s">
         <v>57</v>
       </c>
-      <c r="AK33" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL33">
+      <c r="AL33" s="1">
         <v>45787</v>
       </c>
       <c r="AM33">
@@ -5024,7 +5055,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34">
         <v>402</v>
@@ -5039,61 +5070,61 @@
         <v>39</v>
       </c>
       <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>222</v>
+      </c>
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" t="s">
+        <v>118</v>
+      </c>
+      <c r="K34" t="s">
         <v>119</v>
       </c>
-      <c r="H34" t="s">
+      <c r="L34" t="s">
         <v>120</v>
       </c>
-      <c r="I34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K34" t="s">
-        <v>123</v>
-      </c>
-      <c r="L34" t="s">
-        <v>124</v>
-      </c>
       <c r="M34" t="s">
         <v>39</v>
       </c>
       <c r="N34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="O34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Q34">
         <v>90176</v>
       </c>
       <c r="R34" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" t="s">
         <v>51</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
+        <v>39</v>
+      </c>
+      <c r="U34" t="s">
         <v>52</v>
       </c>
-      <c r="T34" t="s">
-        <v>39</v>
-      </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>53</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X34" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y34" t="s">
         <v>54</v>
-      </c>
-      <c r="W34">
-        <v>45727</v>
-      </c>
-      <c r="X34" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>55</v>
       </c>
       <c r="Z34">
         <v>3050</v>
@@ -5102,7 +5133,7 @@
         <v>402</v>
       </c>
       <c r="AB34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC34">
         <v>5</v>
@@ -5126,12 +5157,12 @@
         <v>550</v>
       </c>
       <c r="AJ34" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK34" t="s">
         <v>57</v>
       </c>
-      <c r="AK34" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL34">
+      <c r="AL34" s="1">
         <v>45787</v>
       </c>
       <c r="AM34">
@@ -5143,7 +5174,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C35">
         <v>403</v>
@@ -5158,61 +5189,61 @@
         <v>39</v>
       </c>
       <c r="G35" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" t="s">
+        <v>222</v>
+      </c>
+      <c r="I35" t="s">
+        <v>117</v>
+      </c>
+      <c r="J35" t="s">
+        <v>118</v>
+      </c>
+      <c r="K35" t="s">
         <v>119</v>
       </c>
-      <c r="H35" t="s">
+      <c r="L35" t="s">
         <v>120</v>
       </c>
-      <c r="I35" t="s">
-        <v>121</v>
-      </c>
-      <c r="J35" t="s">
-        <v>122</v>
-      </c>
-      <c r="K35" t="s">
-        <v>123</v>
-      </c>
-      <c r="L35" t="s">
-        <v>124</v>
-      </c>
       <c r="M35" t="s">
         <v>39</v>
       </c>
       <c r="N35" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="O35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q35">
         <v>90177</v>
       </c>
       <c r="R35" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" t="s">
         <v>51</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" t="s">
         <v>52</v>
       </c>
-      <c r="T35" t="s">
-        <v>39</v>
-      </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>53</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X35" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y35" t="s">
         <v>54</v>
-      </c>
-      <c r="W35">
-        <v>45727</v>
-      </c>
-      <c r="X35" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>55</v>
       </c>
       <c r="Z35">
         <v>2440</v>
@@ -5221,7 +5252,7 @@
         <v>403</v>
       </c>
       <c r="AB35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC35">
         <v>4</v>
@@ -5245,12 +5276,12 @@
         <v>440</v>
       </c>
       <c r="AJ35" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK35" t="s">
         <v>57</v>
       </c>
-      <c r="AK35" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL35">
+      <c r="AL35" s="1">
         <v>45787</v>
       </c>
       <c r="AM35">
@@ -5262,7 +5293,7 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36">
         <v>404</v>
@@ -5277,61 +5308,61 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" t="s">
+        <v>222</v>
+      </c>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" t="s">
+        <v>118</v>
+      </c>
+      <c r="K36" t="s">
         <v>119</v>
       </c>
-      <c r="H36" t="s">
+      <c r="L36" t="s">
         <v>120</v>
       </c>
-      <c r="I36" t="s">
-        <v>121</v>
-      </c>
-      <c r="J36" t="s">
-        <v>122</v>
-      </c>
-      <c r="K36" t="s">
-        <v>123</v>
-      </c>
-      <c r="L36" t="s">
-        <v>124</v>
-      </c>
       <c r="M36" t="s">
         <v>39</v>
       </c>
       <c r="N36" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q36">
         <v>90178</v>
       </c>
       <c r="R36" t="s">
+        <v>50</v>
+      </c>
+      <c r="S36" t="s">
         <v>51</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
+        <v>39</v>
+      </c>
+      <c r="U36" t="s">
         <v>52</v>
       </c>
-      <c r="T36" t="s">
-        <v>39</v>
-      </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>53</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X36" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y36" t="s">
         <v>54</v>
-      </c>
-      <c r="W36">
-        <v>45727</v>
-      </c>
-      <c r="X36" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>55</v>
       </c>
       <c r="Z36">
         <v>610</v>
@@ -5340,7 +5371,7 @@
         <v>404</v>
       </c>
       <c r="AB36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC36">
         <v>1</v>
@@ -5364,12 +5395,12 @@
         <v>110</v>
       </c>
       <c r="AJ36" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK36" t="s">
         <v>57</v>
       </c>
-      <c r="AK36" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL36">
+      <c r="AL36" s="1">
         <v>45787</v>
       </c>
       <c r="AM36">
@@ -5381,7 +5412,7 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <v>405</v>
@@ -5396,61 +5427,61 @@
         <v>39</v>
       </c>
       <c r="G37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" t="s">
+        <v>118</v>
+      </c>
+      <c r="K37" t="s">
         <v>119</v>
       </c>
-      <c r="H37" t="s">
+      <c r="L37" t="s">
         <v>120</v>
       </c>
-      <c r="I37" t="s">
-        <v>121</v>
-      </c>
-      <c r="J37" t="s">
-        <v>122</v>
-      </c>
-      <c r="K37" t="s">
-        <v>123</v>
-      </c>
-      <c r="L37" t="s">
-        <v>124</v>
-      </c>
       <c r="M37" t="s">
         <v>39</v>
       </c>
       <c r="N37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="O37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q37">
         <v>90179</v>
       </c>
       <c r="R37" t="s">
+        <v>50</v>
+      </c>
+      <c r="S37" t="s">
         <v>51</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" t="s">
         <v>52</v>
       </c>
-      <c r="T37" t="s">
-        <v>39</v>
-      </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>53</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X37" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y37" t="s">
         <v>54</v>
-      </c>
-      <c r="W37">
-        <v>45727</v>
-      </c>
-      <c r="X37" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>55</v>
       </c>
       <c r="Z37">
         <v>1830</v>
@@ -5459,7 +5490,7 @@
         <v>405</v>
       </c>
       <c r="AB37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC37">
         <v>3</v>
@@ -5483,12 +5514,12 @@
         <v>330</v>
       </c>
       <c r="AJ37" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK37" t="s">
         <v>57</v>
       </c>
-      <c r="AK37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL37">
+      <c r="AL37" s="1">
         <v>45787</v>
       </c>
       <c r="AM37">
@@ -5500,7 +5531,7 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>406</v>
@@ -5515,61 +5546,61 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" t="s">
+        <v>118</v>
+      </c>
+      <c r="K38" t="s">
         <v>119</v>
       </c>
-      <c r="H38" t="s">
+      <c r="L38" t="s">
         <v>120</v>
       </c>
-      <c r="I38" t="s">
-        <v>121</v>
-      </c>
-      <c r="J38" t="s">
-        <v>122</v>
-      </c>
-      <c r="K38" t="s">
-        <v>123</v>
-      </c>
-      <c r="L38" t="s">
-        <v>124</v>
-      </c>
       <c r="M38" t="s">
         <v>39</v>
       </c>
       <c r="N38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="O38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q38">
         <v>90180</v>
       </c>
       <c r="R38" t="s">
+        <v>50</v>
+      </c>
+      <c r="S38" t="s">
         <v>51</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" t="s">
         <v>52</v>
       </c>
-      <c r="T38" t="s">
-        <v>39</v>
-      </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>53</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X38" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y38" t="s">
         <v>54</v>
-      </c>
-      <c r="W38">
-        <v>45727</v>
-      </c>
-      <c r="X38" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>55</v>
       </c>
       <c r="Z38">
         <v>610</v>
@@ -5578,7 +5609,7 @@
         <v>406</v>
       </c>
       <c r="AB38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC38">
         <v>1</v>
@@ -5602,12 +5633,12 @@
         <v>110</v>
       </c>
       <c r="AJ38" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK38" t="s">
         <v>57</v>
       </c>
-      <c r="AK38" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38">
+      <c r="AL38" s="1">
         <v>45787</v>
       </c>
       <c r="AM38">
@@ -5619,7 +5650,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C39">
         <v>407</v>
@@ -5634,61 +5665,61 @@
         <v>39</v>
       </c>
       <c r="G39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" t="s">
+        <v>222</v>
+      </c>
+      <c r="I39" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" t="s">
+        <v>118</v>
+      </c>
+      <c r="K39" t="s">
         <v>119</v>
       </c>
-      <c r="H39" t="s">
+      <c r="L39" t="s">
         <v>120</v>
       </c>
-      <c r="I39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J39" t="s">
-        <v>122</v>
-      </c>
-      <c r="K39" t="s">
-        <v>123</v>
-      </c>
-      <c r="L39" t="s">
-        <v>124</v>
-      </c>
       <c r="M39" t="s">
         <v>39</v>
       </c>
       <c r="N39" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q39">
         <v>90181</v>
       </c>
       <c r="R39" t="s">
+        <v>50</v>
+      </c>
+      <c r="S39" t="s">
         <v>51</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" t="s">
         <v>52</v>
       </c>
-      <c r="T39" t="s">
-        <v>39</v>
-      </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>53</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X39" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y39" t="s">
         <v>54</v>
-      </c>
-      <c r="W39">
-        <v>45727</v>
-      </c>
-      <c r="X39" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>55</v>
       </c>
       <c r="Z39">
         <v>3050</v>
@@ -5697,7 +5728,7 @@
         <v>407</v>
       </c>
       <c r="AB39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC39">
         <v>5</v>
@@ -5721,12 +5752,12 @@
         <v>550</v>
       </c>
       <c r="AJ39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK39" t="s">
         <v>57</v>
       </c>
-      <c r="AK39" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL39">
+      <c r="AL39" s="1">
         <v>45787</v>
       </c>
       <c r="AM39">
@@ -5738,7 +5769,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40">
         <v>408</v>
@@ -5753,61 +5784,61 @@
         <v>39</v>
       </c>
       <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" t="s">
+        <v>222</v>
+      </c>
+      <c r="I40" t="s">
+        <v>117</v>
+      </c>
+      <c r="J40" t="s">
+        <v>118</v>
+      </c>
+      <c r="K40" t="s">
         <v>119</v>
       </c>
-      <c r="H40" t="s">
+      <c r="L40" t="s">
         <v>120</v>
       </c>
-      <c r="I40" t="s">
-        <v>121</v>
-      </c>
-      <c r="J40" t="s">
-        <v>122</v>
-      </c>
-      <c r="K40" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" t="s">
-        <v>124</v>
-      </c>
       <c r="M40" t="s">
         <v>39</v>
       </c>
       <c r="N40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q40">
         <v>90182</v>
       </c>
       <c r="R40" t="s">
+        <v>50</v>
+      </c>
+      <c r="S40" t="s">
         <v>51</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
+        <v>39</v>
+      </c>
+      <c r="U40" t="s">
         <v>52</v>
       </c>
-      <c r="T40" t="s">
-        <v>39</v>
-      </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>53</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X40" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y40" t="s">
         <v>54</v>
-      </c>
-      <c r="W40">
-        <v>45727</v>
-      </c>
-      <c r="X40" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>55</v>
       </c>
       <c r="Z40">
         <v>3050</v>
@@ -5816,7 +5847,7 @@
         <v>408</v>
       </c>
       <c r="AB40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC40">
         <v>5</v>
@@ -5840,12 +5871,12 @@
         <v>550</v>
       </c>
       <c r="AJ40" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK40" t="s">
         <v>57</v>
       </c>
-      <c r="AK40" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL40">
+      <c r="AL40" s="1">
         <v>45787</v>
       </c>
       <c r="AM40">
@@ -5857,7 +5888,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41">
         <v>409</v>
@@ -5872,61 +5903,61 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" t="s">
+        <v>118</v>
+      </c>
+      <c r="K41" t="s">
         <v>119</v>
       </c>
-      <c r="H41" t="s">
+      <c r="L41" t="s">
         <v>120</v>
       </c>
-      <c r="I41" t="s">
-        <v>121</v>
-      </c>
-      <c r="J41" t="s">
-        <v>122</v>
-      </c>
-      <c r="K41" t="s">
-        <v>123</v>
-      </c>
-      <c r="L41" t="s">
-        <v>124</v>
-      </c>
       <c r="M41" t="s">
         <v>39</v>
       </c>
       <c r="N41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q41">
         <v>90183</v>
       </c>
       <c r="R41" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" t="s">
         <v>51</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
+        <v>39</v>
+      </c>
+      <c r="U41" t="s">
         <v>52</v>
       </c>
-      <c r="T41" t="s">
-        <v>39</v>
-      </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>53</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X41" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y41" t="s">
         <v>54</v>
-      </c>
-      <c r="W41">
-        <v>45727</v>
-      </c>
-      <c r="X41" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>55</v>
       </c>
       <c r="Z41">
         <v>1220</v>
@@ -5935,7 +5966,7 @@
         <v>409</v>
       </c>
       <c r="AB41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC41">
         <v>2</v>
@@ -5959,12 +5990,12 @@
         <v>220</v>
       </c>
       <c r="AJ41" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK41" t="s">
         <v>57</v>
       </c>
-      <c r="AK41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL41">
+      <c r="AL41" s="1">
         <v>45787</v>
       </c>
       <c r="AM41">
@@ -5976,7 +6007,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C42">
         <v>500</v>
@@ -5991,61 +6022,61 @@
         <v>39</v>
       </c>
       <c r="G42" t="s">
+        <v>141</v>
+      </c>
+      <c r="H42" t="s">
+        <v>223</v>
+      </c>
+      <c r="I42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" t="s">
+        <v>143</v>
+      </c>
+      <c r="K42" t="s">
+        <v>144</v>
+      </c>
+      <c r="L42" t="s">
         <v>145</v>
       </c>
-      <c r="H42" t="s">
+      <c r="M42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N42" t="s">
         <v>146</v>
       </c>
-      <c r="I42" t="s">
+      <c r="O42" t="s">
+        <v>48</v>
+      </c>
+      <c r="P42" t="s">
         <v>147</v>
-      </c>
-      <c r="J42" t="s">
-        <v>148</v>
-      </c>
-      <c r="K42" t="s">
-        <v>149</v>
-      </c>
-      <c r="L42" t="s">
-        <v>150</v>
-      </c>
-      <c r="M42" t="s">
-        <v>39</v>
-      </c>
-      <c r="N42" t="s">
-        <v>151</v>
-      </c>
-      <c r="O42" t="s">
-        <v>49</v>
-      </c>
-      <c r="P42" t="s">
-        <v>152</v>
       </c>
       <c r="Q42">
         <v>90184</v>
       </c>
       <c r="R42" t="s">
+        <v>50</v>
+      </c>
+      <c r="S42" t="s">
         <v>51</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
+        <v>39</v>
+      </c>
+      <c r="U42" t="s">
         <v>52</v>
       </c>
-      <c r="T42" t="s">
-        <v>39</v>
-      </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>53</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X42" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y42" t="s">
         <v>54</v>
-      </c>
-      <c r="W42">
-        <v>45727</v>
-      </c>
-      <c r="X42" t="s">
-        <v>214</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>55</v>
       </c>
       <c r="Z42">
         <v>1220</v>
@@ -6054,7 +6085,7 @@
         <v>500</v>
       </c>
       <c r="AB42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC42">
         <v>2</v>
@@ -6078,12 +6109,12 @@
         <v>220</v>
       </c>
       <c r="AJ42" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK42" t="s">
         <v>57</v>
       </c>
-      <c r="AK42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL42">
+      <c r="AL42" s="1">
         <v>45787</v>
       </c>
       <c r="AM42">
@@ -6095,7 +6126,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C43">
         <v>501</v>
@@ -6110,61 +6141,61 @@
         <v>39</v>
       </c>
       <c r="G43" t="s">
+        <v>141</v>
+      </c>
+      <c r="H43" t="s">
+        <v>223</v>
+      </c>
+      <c r="I43" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43" t="s">
+        <v>143</v>
+      </c>
+      <c r="K43" t="s">
+        <v>144</v>
+      </c>
+      <c r="L43" t="s">
         <v>145</v>
       </c>
-      <c r="H43" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" t="s">
-        <v>147</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="M43" t="s">
+        <v>39</v>
+      </c>
+      <c r="N43" t="s">
         <v>148</v>
       </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" t="s">
         <v>149</v>
-      </c>
-      <c r="L43" t="s">
-        <v>150</v>
-      </c>
-      <c r="M43" t="s">
-        <v>39</v>
-      </c>
-      <c r="N43" t="s">
-        <v>153</v>
-      </c>
-      <c r="O43" t="s">
-        <v>49</v>
-      </c>
-      <c r="P43" t="s">
-        <v>154</v>
       </c>
       <c r="Q43">
         <v>90185</v>
       </c>
       <c r="R43" t="s">
+        <v>50</v>
+      </c>
+      <c r="S43" t="s">
         <v>51</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s">
         <v>52</v>
       </c>
-      <c r="T43" t="s">
-        <v>39</v>
-      </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>53</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X43" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y43" t="s">
         <v>54</v>
-      </c>
-      <c r="W43">
-        <v>45727</v>
-      </c>
-      <c r="X43" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>55</v>
       </c>
       <c r="Z43">
         <v>3050</v>
@@ -6173,7 +6204,7 @@
         <v>501</v>
       </c>
       <c r="AB43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC43">
         <v>5</v>
@@ -6197,12 +6228,12 @@
         <v>550</v>
       </c>
       <c r="AJ43" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK43" t="s">
         <v>57</v>
       </c>
-      <c r="AK43" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL43">
+      <c r="AL43" s="1">
         <v>45787</v>
       </c>
       <c r="AM43">
@@ -6214,7 +6245,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C44">
         <v>502</v>
@@ -6229,61 +6260,61 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
+        <v>141</v>
+      </c>
+      <c r="H44" t="s">
+        <v>223</v>
+      </c>
+      <c r="I44" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44" t="s">
+        <v>143</v>
+      </c>
+      <c r="K44" t="s">
+        <v>144</v>
+      </c>
+      <c r="L44" t="s">
         <v>145</v>
       </c>
-      <c r="H44" t="s">
-        <v>146</v>
-      </c>
-      <c r="I44" t="s">
-        <v>147</v>
-      </c>
-      <c r="J44" t="s">
-        <v>148</v>
-      </c>
-      <c r="K44" t="s">
-        <v>149</v>
-      </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
+        <v>39</v>
+      </c>
+      <c r="N44" t="s">
         <v>150</v>
       </c>
-      <c r="M44" t="s">
-        <v>39</v>
-      </c>
-      <c r="N44" t="s">
-        <v>155</v>
-      </c>
       <c r="O44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>90186</v>
       </c>
       <c r="R44" t="s">
+        <v>50</v>
+      </c>
+      <c r="S44" t="s">
         <v>51</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
+        <v>39</v>
+      </c>
+      <c r="U44" t="s">
         <v>52</v>
       </c>
-      <c r="T44" t="s">
-        <v>39</v>
-      </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>53</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X44" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y44" t="s">
         <v>54</v>
-      </c>
-      <c r="W44">
-        <v>45727</v>
-      </c>
-      <c r="X44" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>55</v>
       </c>
       <c r="Z44">
         <v>3050</v>
@@ -6292,7 +6323,7 @@
         <v>502</v>
       </c>
       <c r="AB44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC44">
         <v>5</v>
@@ -6316,12 +6347,12 @@
         <v>550</v>
       </c>
       <c r="AJ44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK44" t="s">
         <v>57</v>
       </c>
-      <c r="AK44" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL44">
+      <c r="AL44" s="1">
         <v>45787</v>
       </c>
       <c r="AM44">
@@ -6333,7 +6364,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C45">
         <v>503</v>
@@ -6348,61 +6379,61 @@
         <v>39</v>
       </c>
       <c r="G45" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" t="s">
+        <v>143</v>
+      </c>
+      <c r="K45" t="s">
+        <v>144</v>
+      </c>
+      <c r="L45" t="s">
         <v>145</v>
       </c>
-      <c r="H45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" t="s">
-        <v>148</v>
-      </c>
-      <c r="K45" t="s">
-        <v>149</v>
-      </c>
-      <c r="L45" t="s">
-        <v>150</v>
-      </c>
       <c r="M45" t="s">
         <v>39</v>
       </c>
       <c r="N45" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>90187</v>
       </c>
       <c r="R45" t="s">
+        <v>50</v>
+      </c>
+      <c r="S45" t="s">
         <v>51</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U45" t="s">
         <v>52</v>
       </c>
-      <c r="T45" t="s">
-        <v>39</v>
-      </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>53</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X45" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y45" t="s">
         <v>54</v>
-      </c>
-      <c r="W45">
-        <v>45727</v>
-      </c>
-      <c r="X45" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>55</v>
       </c>
       <c r="Z45">
         <v>1220</v>
@@ -6411,7 +6442,7 @@
         <v>503</v>
       </c>
       <c r="AB45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC45">
         <v>2</v>
@@ -6435,12 +6466,12 @@
         <v>220</v>
       </c>
       <c r="AJ45" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK45" t="s">
         <v>57</v>
       </c>
-      <c r="AK45" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL45">
+      <c r="AL45" s="1">
         <v>45787</v>
       </c>
       <c r="AM45">
@@ -6452,7 +6483,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C46">
         <v>504</v>
@@ -6467,61 +6498,61 @@
         <v>39</v>
       </c>
       <c r="G46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H46" t="s">
+        <v>223</v>
+      </c>
+      <c r="I46" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46" t="s">
+        <v>143</v>
+      </c>
+      <c r="K46" t="s">
+        <v>144</v>
+      </c>
+      <c r="L46" t="s">
         <v>145</v>
       </c>
-      <c r="H46" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" t="s">
-        <v>147</v>
-      </c>
-      <c r="J46" t="s">
-        <v>148</v>
-      </c>
-      <c r="K46" t="s">
-        <v>149</v>
-      </c>
-      <c r="L46" t="s">
-        <v>150</v>
-      </c>
       <c r="M46" t="s">
         <v>39</v>
       </c>
       <c r="N46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P46" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q46">
         <v>90188</v>
       </c>
       <c r="R46" t="s">
+        <v>50</v>
+      </c>
+      <c r="S46" t="s">
         <v>51</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
+        <v>39</v>
+      </c>
+      <c r="U46" t="s">
         <v>52</v>
       </c>
-      <c r="T46" t="s">
-        <v>39</v>
-      </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>53</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X46" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y46" t="s">
         <v>54</v>
-      </c>
-      <c r="W46">
-        <v>45727</v>
-      </c>
-      <c r="X46" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>55</v>
       </c>
       <c r="Z46">
         <v>1830</v>
@@ -6530,7 +6561,7 @@
         <v>504</v>
       </c>
       <c r="AB46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC46">
         <v>3</v>
@@ -6554,12 +6585,12 @@
         <v>330</v>
       </c>
       <c r="AJ46" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK46" t="s">
         <v>57</v>
       </c>
-      <c r="AK46" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL46">
+      <c r="AL46" s="1">
         <v>45787</v>
       </c>
       <c r="AM46">
@@ -6571,7 +6602,7 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C47">
         <v>505</v>
@@ -6586,61 +6617,61 @@
         <v>39</v>
       </c>
       <c r="G47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H47" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47" t="s">
+        <v>143</v>
+      </c>
+      <c r="K47" t="s">
+        <v>144</v>
+      </c>
+      <c r="L47" t="s">
         <v>145</v>
       </c>
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" t="s">
-        <v>147</v>
-      </c>
-      <c r="J47" t="s">
-        <v>148</v>
-      </c>
-      <c r="K47" t="s">
-        <v>149</v>
-      </c>
-      <c r="L47" t="s">
-        <v>150</v>
-      </c>
       <c r="M47" t="s">
         <v>39</v>
       </c>
       <c r="N47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="O47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P47" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>90189</v>
       </c>
       <c r="R47" t="s">
+        <v>50</v>
+      </c>
+      <c r="S47" t="s">
         <v>51</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
+        <v>39</v>
+      </c>
+      <c r="U47" t="s">
         <v>52</v>
       </c>
-      <c r="T47" t="s">
-        <v>39</v>
-      </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>53</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X47" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y47" t="s">
         <v>54</v>
-      </c>
-      <c r="W47">
-        <v>45727</v>
-      </c>
-      <c r="X47" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>55</v>
       </c>
       <c r="Z47">
         <v>2440</v>
@@ -6649,7 +6680,7 @@
         <v>505</v>
       </c>
       <c r="AB47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC47">
         <v>4</v>
@@ -6673,12 +6704,12 @@
         <v>440</v>
       </c>
       <c r="AJ47" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK47" t="s">
         <v>57</v>
       </c>
-      <c r="AK47" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL47">
+      <c r="AL47" s="1">
         <v>45787</v>
       </c>
       <c r="AM47">
@@ -6690,7 +6721,7 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C48">
         <v>506</v>
@@ -6705,61 +6736,61 @@
         <v>39</v>
       </c>
       <c r="G48" t="s">
+        <v>141</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48" t="s">
+        <v>143</v>
+      </c>
+      <c r="K48" t="s">
+        <v>144</v>
+      </c>
+      <c r="L48" t="s">
         <v>145</v>
       </c>
-      <c r="H48" t="s">
-        <v>146</v>
-      </c>
-      <c r="I48" t="s">
-        <v>147</v>
-      </c>
-      <c r="J48" t="s">
-        <v>148</v>
-      </c>
-      <c r="K48" t="s">
-        <v>149</v>
-      </c>
-      <c r="L48" t="s">
-        <v>150</v>
-      </c>
       <c r="M48" t="s">
         <v>39</v>
       </c>
       <c r="N48" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="O48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>90190</v>
       </c>
       <c r="R48" t="s">
+        <v>50</v>
+      </c>
+      <c r="S48" t="s">
         <v>51</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U48" t="s">
         <v>52</v>
       </c>
-      <c r="T48" t="s">
-        <v>39</v>
-      </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>53</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X48" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y48" t="s">
         <v>54</v>
-      </c>
-      <c r="W48">
-        <v>45727</v>
-      </c>
-      <c r="X48" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>55</v>
       </c>
       <c r="Z48">
         <v>2440</v>
@@ -6768,7 +6799,7 @@
         <v>506</v>
       </c>
       <c r="AB48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC48">
         <v>4</v>
@@ -6792,12 +6823,12 @@
         <v>440</v>
       </c>
       <c r="AJ48" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK48" t="s">
         <v>57</v>
       </c>
-      <c r="AK48" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL48">
+      <c r="AL48" s="1">
         <v>45787</v>
       </c>
       <c r="AM48">
@@ -6809,7 +6840,7 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C49">
         <v>507</v>
@@ -6824,61 +6855,61 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" t="s">
+        <v>223</v>
+      </c>
+      <c r="I49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J49" t="s">
+        <v>143</v>
+      </c>
+      <c r="K49" t="s">
+        <v>144</v>
+      </c>
+      <c r="L49" t="s">
         <v>145</v>
       </c>
-      <c r="H49" t="s">
-        <v>146</v>
-      </c>
-      <c r="I49" t="s">
-        <v>147</v>
-      </c>
-      <c r="J49" t="s">
-        <v>148</v>
-      </c>
-      <c r="K49" t="s">
-        <v>149</v>
-      </c>
-      <c r="L49" t="s">
-        <v>150</v>
-      </c>
       <c r="M49" t="s">
         <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="O49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q49">
         <v>90191</v>
       </c>
       <c r="R49" t="s">
+        <v>50</v>
+      </c>
+      <c r="S49" t="s">
         <v>51</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s">
         <v>52</v>
       </c>
-      <c r="T49" t="s">
-        <v>39</v>
-      </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>53</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X49" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y49" t="s">
         <v>54</v>
-      </c>
-      <c r="W49">
-        <v>45727</v>
-      </c>
-      <c r="X49" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>55</v>
       </c>
       <c r="Z49">
         <v>1830</v>
@@ -6887,7 +6918,7 @@
         <v>507</v>
       </c>
       <c r="AB49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC49">
         <v>3</v>
@@ -6911,12 +6942,12 @@
         <v>330</v>
       </c>
       <c r="AJ49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK49" t="s">
         <v>57</v>
       </c>
-      <c r="AK49" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL49">
+      <c r="AL49" s="1">
         <v>45787</v>
       </c>
       <c r="AM49">
@@ -6928,7 +6959,7 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C50">
         <v>508</v>
@@ -6943,61 +6974,61 @@
         <v>39</v>
       </c>
       <c r="G50" t="s">
+        <v>141</v>
+      </c>
+      <c r="H50" t="s">
+        <v>223</v>
+      </c>
+      <c r="I50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" t="s">
+        <v>143</v>
+      </c>
+      <c r="K50" t="s">
+        <v>144</v>
+      </c>
+      <c r="L50" t="s">
         <v>145</v>
       </c>
-      <c r="H50" t="s">
-        <v>146</v>
-      </c>
-      <c r="I50" t="s">
-        <v>147</v>
-      </c>
-      <c r="J50" t="s">
-        <v>148</v>
-      </c>
-      <c r="K50" t="s">
-        <v>149</v>
-      </c>
-      <c r="L50" t="s">
-        <v>150</v>
-      </c>
       <c r="M50" t="s">
         <v>39</v>
       </c>
       <c r="N50" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="O50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P50" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q50">
         <v>90192</v>
       </c>
       <c r="R50" t="s">
+        <v>50</v>
+      </c>
+      <c r="S50" t="s">
         <v>51</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
+        <v>39</v>
+      </c>
+      <c r="U50" t="s">
         <v>52</v>
       </c>
-      <c r="T50" t="s">
-        <v>39</v>
-      </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>53</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X50" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y50" t="s">
         <v>54</v>
-      </c>
-      <c r="W50">
-        <v>45727</v>
-      </c>
-      <c r="X50" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>55</v>
       </c>
       <c r="Z50">
         <v>1830</v>
@@ -7006,7 +7037,7 @@
         <v>508</v>
       </c>
       <c r="AB50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC50">
         <v>3</v>
@@ -7030,12 +7061,12 @@
         <v>330</v>
       </c>
       <c r="AJ50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK50" t="s">
         <v>57</v>
       </c>
-      <c r="AK50" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL50">
+      <c r="AL50" s="1">
         <v>45787</v>
       </c>
       <c r="AM50">
@@ -7047,7 +7078,7 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C51">
         <v>509</v>
@@ -7062,61 +7093,61 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
+        <v>141</v>
+      </c>
+      <c r="H51" t="s">
+        <v>223</v>
+      </c>
+      <c r="I51" t="s">
+        <v>142</v>
+      </c>
+      <c r="J51" t="s">
+        <v>143</v>
+      </c>
+      <c r="K51" t="s">
+        <v>144</v>
+      </c>
+      <c r="L51" t="s">
         <v>145</v>
       </c>
-      <c r="H51" t="s">
-        <v>146</v>
-      </c>
-      <c r="I51" t="s">
-        <v>147</v>
-      </c>
-      <c r="J51" t="s">
-        <v>148</v>
-      </c>
-      <c r="K51" t="s">
-        <v>149</v>
-      </c>
-      <c r="L51" t="s">
-        <v>150</v>
-      </c>
       <c r="M51" t="s">
         <v>39</v>
       </c>
       <c r="N51" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="O51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q51">
         <v>90193</v>
       </c>
       <c r="R51" t="s">
+        <v>50</v>
+      </c>
+      <c r="S51" t="s">
         <v>51</v>
       </c>
-      <c r="S51" t="s">
-        <v>52</v>
-      </c>
       <c r="T51" t="s">
         <v>39</v>
       </c>
       <c r="U51" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="V51" t="s">
+        <v>53</v>
+      </c>
+      <c r="W51" s="1">
+        <v>45727</v>
+      </c>
+      <c r="X51" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y51" t="s">
         <v>54</v>
-      </c>
-      <c r="W51">
-        <v>45727</v>
-      </c>
-      <c r="X51" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>55</v>
       </c>
       <c r="Z51">
         <v>1220</v>
@@ -7125,7 +7156,7 @@
         <v>509</v>
       </c>
       <c r="AB51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC51">
         <v>2</v>
@@ -7149,12 +7180,12 @@
         <v>220</v>
       </c>
       <c r="AJ51" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AK51" t="s">
-        <v>173</v>
-      </c>
-      <c r="AL51">
+        <v>168</v>
+      </c>
+      <c r="AL51" s="1">
         <v>45787</v>
       </c>
       <c r="AM51">
